--- a/REVs/REV-07-05-2025.xlsx
+++ b/REVs/REV-07-05-2025.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1489,20 +1489,1303 @@
           <t>ML</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
           <t>Solo Revisión</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>0TF20575</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MAD BEAUTY MASCARILLA DE ARCILLA DAISY - FRUTOS SI</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>No Tiene PT - TRADUZIDO</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>No Tiene ES - TRADUCIDO</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>No Tiene IT - TRADOTTO</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Solo Revisión</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>0TF20576</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MAD BEAUTY MASCARILLA DE ARCILLA DONALD - ARANDANO</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>TRAT.FEMENINO</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Tiene PT</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Tiene ES</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Tiene IT</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>ML</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Solo Revisión</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>0TF26567</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ORJENA OH-REFRESH SODA &amp; HYAL DEEP CLEANSING GEL</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>TRATAMIENTO CUERPO MANOS</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>No Tiene PT - TRADUZIDO</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Tiene ES</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>No Tiene IT - TRADOTTO</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>ML</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Solo Revisión</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>0TF26566</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ORJENA OH-REFRESH SODA &amp; HYAL DEEP CLEANSING FOAM</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>TRATAMIENTO CUERPO MANOS</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>No Tiene PT - TRADUZIDO</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Tiene ES</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>No Tiene IT - TRADOTTO</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>ML</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Solo Revisión</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>0TF20050</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ORJENA VITAMIN C BRIGHT EYE CREAM 30 ML</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>TRATAMIENTO CUERPO MANOS</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>No Tiene PT - TRADUZIDO</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Tiene ES</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>No Tiene IT - TRADOTTO</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>ML</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Revisado y Traducido</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>0TF26613</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>FARM STAY TEA TREE BIOME CALMING TONER PAD</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>VARIOS</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Tiene PT</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Tiene ES</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>No Tiene IT</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Solo Revisión</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>0TF26699</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>BONNYHILL TRIPLE HA PEPTIDE CREAM</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>VARIOS</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Tiene PT</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Tiene ES</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>No Tiene IT</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Solo Revisión</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>0TF16652</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>FRUDIA COCONUT HONEY LIP MASK 10</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>VARIOS</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Tiene PT</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Tiene ES</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>No Tiene IT</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Solo Revisión</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ZZ104013</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>A.MOLLER STIMULAGE CONTORNO OJOS REVITALIZ. P.BOX</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>MATERIAL PLV ESPECIFICO</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Tiene PT</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Tiene ES</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Tiene IT</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Solo Revisión</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>0TF27037</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>REVUELE HYDRATING CLEANSING FOAM 150ML</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>TRATAMIENTO CUERPO MANOS</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>No Tiene PT - TRADUZIDO</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Tiene ES</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>No Tiene IT - TRADOTTO</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Revisado y Traducido</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>0TF27036</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>REVUELE PURIFYING CLEANSING FOAM 150ML</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>TRATAMIENTO CUERPO MANOS</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>No Tiene PT - TRADUZIDO</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Tiene ES</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>No Tiene IT - TRADOTTO</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Revisado y Traducido</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>0TF27035</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>REVUELE SOOTHING CLEANSING FOAM 150ML</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>TRATAMIENTO CUERPO MANOS</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>No Tiene PT - TRADUZIDO</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Tiene ES</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>No Tiene IT - TRADOTTO</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Revisado y Traducido</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>0TF27043</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>REVUELE ALOE DAILY SUN SERUM 30SPF 30ML</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>TRATAMIENTO CUERPO MANOS</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>No Tiene PT - TRADUZIDO</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Tiene ES</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>No Tiene IT - TRADOTTO</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Revisado y Traducido</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>0TF27044</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>REVUELE DAILY SUN FLUID 50SPF+ 40ML</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>TRATAMIENTO CUERPO MANOS</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>No Tiene PT - TRADUZIDO</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Tiene ES</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>No Tiene IT - TRADOTTO</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Revisado y Traducido</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>0TF27042</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>REVUELE HYALURONIC DAILY SUN SERUM 30SPF 30ML</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>TRATAMIENTO CUERPO MANOS</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>No Tiene PT - TRADUZIDO</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Tiene ES</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>No Tiene IT - TRADOTTO</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Revisado y Traducido</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2LT03844</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CHI EXPOSITOR SUBRAYADORES CARROTS</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>LOTES</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Tiene PT</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Tiene ES</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Tiene IT</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>"8445984035174","8445984035167"</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Solo Revisión</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2LT02736</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>TECHNIC LOTE SETTING SPRAY</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>LOTES</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Tiene PT</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Tiene ES</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Tiene IT</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>"5021769267157"</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Solo Revisión</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>0MR24765</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>TECHNIC SETTING SPRAY</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>MAQUILLAJE ROSTRO</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>No Tiene PT - TRADUZIDO</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Tiene ES</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Tiene IT</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>ML</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Revisado y Traducido</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2LT03794</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>BARBIE EXPOSITOR EXTRA COLORFUL EYESHADOW PALETTE</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>LOTES</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Tiene PT</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Tiene ES</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Tiene IT</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>"8445984028169"</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Solo Revisión</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>0MO27221</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>BARBIE EXTRA COLORFUL EYESHADOW PALETTE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>MAQUILLAJE OJOS</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>No Tiene PT - TRADUZIDO</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Tiene ES</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>No Tiene IT - TRADOTTO</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>GR</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Revisado y Traducido</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2LT03203</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>TECHNIC LOTE SUMMER LIP TINT - SUNSET IN PROVENCE</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>MAQUILLAJE LABIOS</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Tiene PT</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Tiene ES</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Tiene IT</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>"5021769246152"</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Solo Revisión</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>0ML32938</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>TECHNIC SUMMER LIP TINT - SUNSET IN PROVENCE</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>MAQUILLAJE LABIOS</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>No Tiene PT - TRADUZIDO</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Tiene ES</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Tiene IT</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2.9</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>GR</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Revisado y Traducido</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2LT03849</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>WOOOOW EXPOSITOR ESPONJA GOTA</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>MAQUILLAJE ROSTRO</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Tiene PT</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Tiene ES</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Tiene IT</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>"8435722402917","8435722402924"</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Solo Revisión</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>6VA37657</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>WOOOOW ESPONJA MAQUILLAJE GOTA BUTTERFLY AZUL</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>MAQUILLAJE ROSTRO</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>No Tiene PT - TRADUZIDO</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Tiene ES</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>No Tiene IT - TRADOTTO</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Revisado y Traducido</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>6VA37658</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>WOOOOW ESPONJA MAQUILLAJE GOTA BUTTERFLY ROSA</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>MAQUILLAJE ROSTRO</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>No Tiene PT - TRADUZIDO</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Tiene ES</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>No Tiene IT - TRADOTTO</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Revisado y Traducido</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2LT02701</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>TECHNIC LOTE PRESSED PIGMENTS - INVITE ONLY</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>LOTES</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>No Tiene PT - TRADUZIDO</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Tiene ES</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>No Tiene IT - TRADOTTO</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>"5021769295334"</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Solo Revisión</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>0MO18607</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>TECHNIC PRESSED PIGMENTS - INVITE ONLY</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>MAQUILLAJE OJOS</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>No Tiene PT - TRADUZIDO</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Tiene ES</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Tiene IT</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>22.5</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>GR</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Revisado y Traducido</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
